--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.919770241665247</v>
+        <v>1.329263333333333</v>
       </c>
       <c r="N2">
-        <v>0.919770241665247</v>
+        <v>3.98779</v>
       </c>
       <c r="O2">
-        <v>0.001750093229217994</v>
+        <v>0.002410078630586866</v>
       </c>
       <c r="P2">
-        <v>0.001750093229217994</v>
+        <v>0.002410078630586867</v>
       </c>
       <c r="Q2">
-        <v>2.807240887552569</v>
+        <v>5.52133230696111</v>
       </c>
       <c r="R2">
-        <v>2.807240887552569</v>
+        <v>49.69199076264999</v>
       </c>
       <c r="S2">
-        <v>3.347137365478193E-05</v>
+        <v>5.46536108368696E-05</v>
       </c>
       <c r="T2">
-        <v>3.347137365478193E-05</v>
+        <v>5.465361083686962E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>308.438525913682</v>
+        <v>0.214092</v>
       </c>
       <c r="N3">
-        <v>308.438525913682</v>
+        <v>0.642276</v>
       </c>
       <c r="O3">
-        <v>0.5868815399530767</v>
+        <v>0.000388168800899448</v>
       </c>
       <c r="P3">
-        <v>0.5868815399530767</v>
+        <v>0.0003881688008994481</v>
       </c>
       <c r="Q3">
-        <v>941.3886229605407</v>
+        <v>0.8892693017399997</v>
       </c>
       <c r="R3">
-        <v>941.3886229605407</v>
+        <v>8.003423715659999</v>
       </c>
       <c r="S3">
-        <v>0.01122439135636266</v>
+        <v>8.802545408324225E-06</v>
       </c>
       <c r="T3">
-        <v>0.01122439135636266</v>
+        <v>8.802545408324229E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>215.855687193255</v>
+        <v>310.201294</v>
       </c>
       <c r="N4">
-        <v>215.855687193255</v>
+        <v>930.6038819999999</v>
       </c>
       <c r="O4">
-        <v>0.4107195031241317</v>
+        <v>0.5624239314380599</v>
       </c>
       <c r="P4">
-        <v>0.4107195031241317</v>
+        <v>0.5624239314380601</v>
       </c>
       <c r="Q4">
-        <v>658.8155209311536</v>
+        <v>1288.476393859763</v>
       </c>
       <c r="R4">
-        <v>658.8155209311536</v>
+        <v>11596.28754473787</v>
       </c>
       <c r="S4">
-        <v>0.007855207783711619</v>
+        <v>0.01275414763819261</v>
       </c>
       <c r="T4">
-        <v>0.007855207783711619</v>
+        <v>0.01275414763819262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H5">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I5">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J5">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.341013556467912</v>
+        <v>239.4131166666667</v>
       </c>
       <c r="N5">
-        <v>0.341013556467912</v>
+        <v>718.2393500000001</v>
       </c>
       <c r="O5">
-        <v>0.0006488636935736501</v>
+        <v>0.4340783514381652</v>
       </c>
       <c r="P5">
-        <v>0.0006488636935736501</v>
+        <v>0.4340783514381653</v>
       </c>
       <c r="Q5">
-        <v>1.040811232589164</v>
+        <v>994.4450754141388</v>
       </c>
       <c r="R5">
-        <v>1.040811232589164</v>
+        <v>8950.00567872725</v>
       </c>
       <c r="S5">
-        <v>1.240982981708359E-05</v>
+        <v>0.009843641195405522</v>
       </c>
       <c r="T5">
-        <v>1.240982981708359E-05</v>
+        <v>0.009843641195405525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H6">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I6">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J6">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.919770241665247</v>
+        <v>0.385788</v>
       </c>
       <c r="N6">
-        <v>0.919770241665247</v>
+        <v>1.157364</v>
       </c>
       <c r="O6">
-        <v>0.001750093229217994</v>
+        <v>0.0006994696922883446</v>
       </c>
       <c r="P6">
-        <v>0.001750093229217994</v>
+        <v>0.0006994696922883448</v>
       </c>
       <c r="Q6">
-        <v>119.911842993829</v>
+        <v>1.60243925686</v>
       </c>
       <c r="R6">
-        <v>119.911842993829</v>
+        <v>14.42195331174</v>
       </c>
       <c r="S6">
-        <v>0.001429736265340298</v>
+        <v>1.586194901251138E-05</v>
       </c>
       <c r="T6">
-        <v>0.001429736265340298</v>
+        <v>1.586194901251139E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>308.438525913682</v>
+        <v>1.329263333333333</v>
       </c>
       <c r="N7">
-        <v>308.438525913682</v>
+        <v>3.98779</v>
       </c>
       <c r="O7">
-        <v>0.5868815399530767</v>
+        <v>0.002410078630586866</v>
       </c>
       <c r="P7">
-        <v>0.5868815399530767</v>
+        <v>0.002410078630586867</v>
       </c>
       <c r="Q7">
-        <v>40211.59895937407</v>
+        <v>186.8799099972422</v>
       </c>
       <c r="R7">
-        <v>40211.59895937407</v>
+        <v>1681.91918997518</v>
       </c>
       <c r="S7">
-        <v>0.4794520698217942</v>
+        <v>0.001849854583347836</v>
       </c>
       <c r="T7">
-        <v>0.4794520698217942</v>
+        <v>0.001849854583347837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J8">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>215.855687193255</v>
+        <v>0.214092</v>
       </c>
       <c r="N8">
-        <v>215.855687193255</v>
+        <v>0.642276</v>
       </c>
       <c r="O8">
-        <v>0.4107195031241317</v>
+        <v>0.000388168800899448</v>
       </c>
       <c r="P8">
-        <v>0.4107195031241317</v>
+        <v>0.0003881688008994481</v>
       </c>
       <c r="Q8">
-        <v>28141.43369672432</v>
+        <v>30.098997458088</v>
       </c>
       <c r="R8">
-        <v>28141.43369672432</v>
+        <v>270.890977122792</v>
       </c>
       <c r="S8">
-        <v>0.3355367352409625</v>
+        <v>0.0002979387586543712</v>
       </c>
       <c r="T8">
-        <v>0.3355367352409625</v>
+        <v>0.0002979387586543713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J9">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.341013556467912</v>
+        <v>310.201294</v>
       </c>
       <c r="N9">
-        <v>0.341013556467912</v>
+        <v>930.6038819999999</v>
       </c>
       <c r="O9">
-        <v>0.0006488636935736501</v>
+        <v>0.5624239314380599</v>
       </c>
       <c r="P9">
-        <v>0.0006488636935736501</v>
+        <v>0.5624239314380601</v>
       </c>
       <c r="Q9">
-        <v>44.45845515496694</v>
+        <v>43610.91474507037</v>
       </c>
       <c r="R9">
-        <v>44.45845515496694</v>
+        <v>392498.2327056334</v>
       </c>
       <c r="S9">
-        <v>0.0005300883052838473</v>
+        <v>0.4316881923067636</v>
       </c>
       <c r="T9">
-        <v>0.0005300883052838473</v>
+        <v>0.4316881923067638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H10">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J10">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.919770241665247</v>
+        <v>239.4131166666667</v>
       </c>
       <c r="N10">
-        <v>0.919770241665247</v>
+        <v>718.2393500000001</v>
       </c>
       <c r="O10">
-        <v>0.001750093229217994</v>
+        <v>0.4340783514381652</v>
       </c>
       <c r="P10">
-        <v>0.001750093229217994</v>
+        <v>0.4340783514381653</v>
       </c>
       <c r="Q10">
-        <v>6.187244828395863</v>
+        <v>33658.86997170808</v>
       </c>
       <c r="R10">
-        <v>6.187244828395863</v>
+        <v>302929.8297453728</v>
       </c>
       <c r="S10">
-        <v>7.377193188626102E-05</v>
+        <v>0.3331766099865517</v>
       </c>
       <c r="T10">
-        <v>7.377193188626102E-05</v>
+        <v>0.3331766099865518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H11">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J11">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>308.438525913682</v>
+        <v>0.385788</v>
       </c>
       <c r="N11">
-        <v>308.438525913682</v>
+        <v>1.157364</v>
       </c>
       <c r="O11">
-        <v>0.5868815399530767</v>
+        <v>0.0006994696922883446</v>
       </c>
       <c r="P11">
-        <v>0.5868815399530767</v>
+        <v>0.0006994696922883448</v>
       </c>
       <c r="Q11">
-        <v>2074.849335071262</v>
+        <v>54.237580252232</v>
       </c>
       <c r="R11">
-        <v>2074.849335071262</v>
+        <v>488.138222270088</v>
       </c>
       <c r="S11">
-        <v>0.02473890205841681</v>
+        <v>0.0005368775938556909</v>
       </c>
       <c r="T11">
-        <v>0.02473890205841681</v>
+        <v>0.0005368775938556911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H12">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I12">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J12">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>215.855687193255</v>
+        <v>1.329263333333333</v>
       </c>
       <c r="N12">
-        <v>215.855687193255</v>
+        <v>3.98779</v>
       </c>
       <c r="O12">
-        <v>0.4107195031241317</v>
+        <v>0.002410078630586866</v>
       </c>
       <c r="P12">
-        <v>0.4107195031241317</v>
+        <v>0.002410078630586867</v>
       </c>
       <c r="Q12">
-        <v>1452.049570388667</v>
+        <v>9.468307276311112</v>
       </c>
       <c r="R12">
-        <v>1452.049570388667</v>
+        <v>85.2147654868</v>
       </c>
       <c r="S12">
-        <v>0.01731311835448411</v>
+        <v>9.372324511440662E-05</v>
       </c>
       <c r="T12">
-        <v>0.01731311835448411</v>
+        <v>9.372324511440666E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H13">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I13">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J13">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.341013556467912</v>
+        <v>0.214092</v>
       </c>
       <c r="N13">
-        <v>0.341013556467912</v>
+        <v>0.642276</v>
       </c>
       <c r="O13">
-        <v>0.0006488636935736501</v>
+        <v>0.000388168800899448</v>
       </c>
       <c r="P13">
-        <v>0.0006488636935736501</v>
+        <v>0.0003881688008994481</v>
       </c>
       <c r="Q13">
-        <v>2.293979809402102</v>
+        <v>1.52497160688</v>
       </c>
       <c r="R13">
-        <v>2.293979809402102</v>
+        <v>13.72474446192</v>
       </c>
       <c r="S13">
-        <v>2.735164470476364E-05</v>
+        <v>1.509512561571713E-05</v>
       </c>
       <c r="T13">
-        <v>2.735164470476364E-05</v>
+        <v>1.509512561571714E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H14">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I14">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J14">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.919770241665247</v>
+        <v>310.201294</v>
       </c>
       <c r="N14">
-        <v>0.919770241665247</v>
+        <v>930.6038819999999</v>
       </c>
       <c r="O14">
-        <v>0.001750093229217994</v>
+        <v>0.5624239314380599</v>
       </c>
       <c r="P14">
-        <v>0.001750093229217994</v>
+        <v>0.5624239314380601</v>
       </c>
       <c r="Q14">
-        <v>17.55132903701319</v>
+        <v>2209.555545127493</v>
       </c>
       <c r="R14">
-        <v>17.55132903701319</v>
+        <v>19885.99990614744</v>
       </c>
       <c r="S14">
-        <v>0.0002092685009472282</v>
+        <v>0.02187156689221457</v>
       </c>
       <c r="T14">
-        <v>0.0002092685009472282</v>
+        <v>0.02187156689221458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H15">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I15">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J15">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>308.438525913682</v>
+        <v>239.4131166666667</v>
       </c>
       <c r="N15">
-        <v>308.438525913682</v>
+        <v>718.2393500000001</v>
       </c>
       <c r="O15">
-        <v>0.5868815399530767</v>
+        <v>0.4340783514381652</v>
       </c>
       <c r="P15">
-        <v>0.5868815399530767</v>
+        <v>0.4340783514381653</v>
       </c>
       <c r="Q15">
-        <v>5885.715595887492</v>
+        <v>1705.333245666889</v>
       </c>
       <c r="R15">
-        <v>5885.715595887492</v>
+        <v>15347.999211002</v>
       </c>
       <c r="S15">
-        <v>0.07017673004452442</v>
+        <v>0.01688045826155894</v>
       </c>
       <c r="T15">
-        <v>0.07017673004452442</v>
+        <v>0.01688045826155894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H16">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I16">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J16">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>215.855687193255</v>
+        <v>0.385788</v>
       </c>
       <c r="N16">
-        <v>215.855687193255</v>
+        <v>1.157364</v>
       </c>
       <c r="O16">
-        <v>0.4107195031241317</v>
+        <v>0.0006994696922883446</v>
       </c>
       <c r="P16">
-        <v>0.4107195031241317</v>
+        <v>0.0006994696922883448</v>
       </c>
       <c r="Q16">
-        <v>4119.022358866734</v>
+        <v>2.747957636320001</v>
       </c>
       <c r="R16">
-        <v>4119.022358866734</v>
+        <v>24.73161872688</v>
       </c>
       <c r="S16">
-        <v>0.04911204345781245</v>
+        <v>2.720100854322573E-05</v>
       </c>
       <c r="T16">
-        <v>0.04911204345781245</v>
+        <v>2.720100854322574E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H17">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I17">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J17">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.341013556467912</v>
+        <v>1.329263333333333</v>
       </c>
       <c r="N17">
-        <v>0.341013556467912</v>
+        <v>3.98779</v>
       </c>
       <c r="O17">
-        <v>0.0006488636935736501</v>
+        <v>0.002410078630586866</v>
       </c>
       <c r="P17">
-        <v>0.0006488636935736501</v>
+        <v>0.002410078630586867</v>
       </c>
       <c r="Q17">
-        <v>6.507322007737608</v>
+        <v>41.09206951070445</v>
       </c>
       <c r="R17">
-        <v>6.507322007737608</v>
+        <v>369.82862559634</v>
       </c>
       <c r="S17">
-        <v>7.75882851303378E-05</v>
+        <v>0.0004067550820457172</v>
       </c>
       <c r="T17">
-        <v>7.75882851303378E-05</v>
+        <v>0.0004067550820457174</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.350623411838624</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H18">
-        <v>0.350623411838624</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I18">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J18">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.919770241665247</v>
+        <v>0.214092</v>
       </c>
       <c r="N18">
-        <v>0.919770241665247</v>
+        <v>0.642276</v>
       </c>
       <c r="O18">
-        <v>0.001750093229217994</v>
+        <v>0.000388168800899448</v>
       </c>
       <c r="P18">
-        <v>0.001750093229217994</v>
+        <v>0.0003881688008994481</v>
       </c>
       <c r="Q18">
-        <v>0.3224929802403046</v>
+        <v>6.618314915544</v>
       </c>
       <c r="R18">
-        <v>0.3224929802403046</v>
+        <v>59.564834239896</v>
       </c>
       <c r="S18">
-        <v>3.845157389424532E-06</v>
+        <v>6.551223285980332E-05</v>
       </c>
       <c r="T18">
-        <v>3.845157389424532E-06</v>
+        <v>6.551223285980333E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.350623411838624</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H19">
-        <v>0.350623411838624</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I19">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J19">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>308.438525913682</v>
+        <v>310.201294</v>
       </c>
       <c r="N19">
-        <v>308.438525913682</v>
+        <v>930.6038819999999</v>
       </c>
       <c r="O19">
-        <v>0.5868815399530767</v>
+        <v>0.5624239314380599</v>
       </c>
       <c r="P19">
-        <v>0.5868815399530767</v>
+        <v>0.5624239314380601</v>
       </c>
       <c r="Q19">
-        <v>108.145768298331</v>
+        <v>9589.381438359442</v>
       </c>
       <c r="R19">
-        <v>108.145768298331</v>
+        <v>86304.43294523498</v>
       </c>
       <c r="S19">
-        <v>0.001289446671978599</v>
+        <v>0.09492171312305135</v>
       </c>
       <c r="T19">
-        <v>0.001289446671978599</v>
+        <v>0.09492171312305138</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.350623411838624</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H20">
-        <v>0.350623411838624</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I20">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J20">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>215.855687193255</v>
+        <v>239.4131166666667</v>
       </c>
       <c r="N20">
-        <v>215.855687193255</v>
+        <v>718.2393500000001</v>
       </c>
       <c r="O20">
-        <v>0.4107195031241317</v>
+        <v>0.4340783514381652</v>
       </c>
       <c r="P20">
-        <v>0.4107195031241317</v>
+        <v>0.4340783514381653</v>
       </c>
       <c r="Q20">
-        <v>75.68405750846985</v>
+        <v>7401.077111764457</v>
       </c>
       <c r="R20">
-        <v>75.68405750846985</v>
+        <v>66609.69400588011</v>
       </c>
       <c r="S20">
-        <v>0.0009023982871610837</v>
+        <v>0.07326050412326443</v>
       </c>
       <c r="T20">
-        <v>0.0009023982871610837</v>
+        <v>0.07326050412326444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.350623411838624</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H21">
-        <v>0.350623411838624</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I21">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J21">
-        <v>0.002197115745166725</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.341013556467912</v>
+        <v>0.385788</v>
       </c>
       <c r="N21">
-        <v>0.341013556467912</v>
+        <v>1.157364</v>
       </c>
       <c r="O21">
-        <v>0.0006488636935736501</v>
+        <v>0.0006994696922883446</v>
       </c>
       <c r="P21">
-        <v>0.0006488636935736501</v>
+        <v>0.0006994696922883448</v>
       </c>
       <c r="Q21">
-        <v>0.1195673366520026</v>
+        <v>11.926024674616</v>
       </c>
       <c r="R21">
-        <v>0.1195673366520026</v>
+        <v>107.334222071544</v>
       </c>
       <c r="S21">
-        <v>1.425628637617703E-06</v>
+        <v>0.0001180512737071811</v>
       </c>
       <c r="T21">
-        <v>1.425628637617703E-06</v>
+        <v>0.0001180512737071811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.161002</v>
+      </c>
+      <c r="I22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J22">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.329263333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.98779</v>
+      </c>
+      <c r="O22">
+        <v>0.002410078630586866</v>
+      </c>
+      <c r="P22">
+        <v>0.002410078630586867</v>
+      </c>
+      <c r="Q22">
+        <v>0.5144257961755556</v>
+      </c>
+      <c r="R22">
+        <v>4.62983216558</v>
+      </c>
+      <c r="S22">
+        <v>5.092109242035456E-06</v>
+      </c>
+      <c r="T22">
+        <v>5.092109242035459E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.161002</v>
+      </c>
+      <c r="I23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J23">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.214092</v>
+      </c>
+      <c r="N23">
+        <v>0.642276</v>
+      </c>
+      <c r="O23">
+        <v>0.000388168800899448</v>
+      </c>
+      <c r="P23">
+        <v>0.0003881688008994481</v>
+      </c>
+      <c r="Q23">
+        <v>0.082853746728</v>
+      </c>
+      <c r="R23">
+        <v>0.7456837205520001</v>
+      </c>
+      <c r="S23">
+        <v>8.20138361232052E-07</v>
+      </c>
+      <c r="T23">
+        <v>8.201383612320522E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.161002</v>
+      </c>
+      <c r="I24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J24">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>310.201294</v>
+      </c>
+      <c r="N24">
+        <v>930.6038819999999</v>
+      </c>
+      <c r="O24">
+        <v>0.5624239314380599</v>
+      </c>
+      <c r="P24">
+        <v>0.5624239314380601</v>
+      </c>
+      <c r="Q24">
+        <v>120.0481075788627</v>
+      </c>
+      <c r="R24">
+        <v>1080.432968209764</v>
+      </c>
+      <c r="S24">
+        <v>0.001188311477837668</v>
+      </c>
+      <c r="T24">
+        <v>0.001188311477837668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.161002</v>
+      </c>
+      <c r="I25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J25">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>239.4131166666667</v>
+      </c>
+      <c r="N25">
+        <v>718.2393500000001</v>
+      </c>
+      <c r="O25">
+        <v>0.4340783514381652</v>
+      </c>
+      <c r="P25">
+        <v>0.4340783514381653</v>
+      </c>
+      <c r="Q25">
+        <v>92.65303575874447</v>
+      </c>
+      <c r="R25">
+        <v>833.8773218287001</v>
+      </c>
+      <c r="S25">
+        <v>0.0009171378713845362</v>
+      </c>
+      <c r="T25">
+        <v>0.0009171378713845364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.161002</v>
+      </c>
+      <c r="I26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J26">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.385788</v>
+      </c>
+      <c r="N26">
+        <v>1.157364</v>
+      </c>
+      <c r="O26">
+        <v>0.0006994696922883446</v>
+      </c>
+      <c r="P26">
+        <v>0.0006994696922883448</v>
+      </c>
+      <c r="Q26">
+        <v>0.149300213192</v>
+      </c>
+      <c r="R26">
+        <v>1.343701918728</v>
+      </c>
+      <c r="S26">
+        <v>1.477867169735399E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.477867169735399E-06</v>
       </c>
     </row>
   </sheetData>
